--- a/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>9,9%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>17,64%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>13,82%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,55</t>
+          <t>6,26; 10,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,13</t>
+          <t>6,79; 13,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,0</t>
+          <t>3,24; 6,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,23</t>
+          <t>7,57; 12,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,71</t>
+          <t>6,64; 10,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,56</t>
+          <t>7,21; 12,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,38</t>
+          <t>7,23; 13,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,25</t>
+          <t>14,47; 21,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,79</t>
+          <t>6,96; 9,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,0</t>
+          <t>7,75; 11,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,63</t>
+          <t>5,69; 9,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,41</t>
+          <t>11,81; 16,32</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15,9%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,76%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>21,43%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>19,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 11,85</t>
+          <t>6,38; 12,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,07</t>
+          <t>5,18; 10,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,28</t>
+          <t>5,32; 11,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,42</t>
+          <t>11,89; 21,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,62</t>
+          <t>9,62; 14,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 25,58</t>
+          <t>10,19; 16,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 15,83</t>
+          <t>8,21; 14,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 14,85</t>
+          <t>17,2; 25,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,55</t>
+          <t>8,91; 12,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,45</t>
+          <t>8,12; 12,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,48</t>
+          <t>7,84; 12,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,81</t>
+          <t>16,28; 22,51</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17,87%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>37,73%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,39%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,45%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>25,3%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>12,85%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,53</t>
+          <t>8,33; 12,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 26,04</t>
+          <t>1,42; 13,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 12,65</t>
+          <t>4,26; 10,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,73</t>
+          <t>12,18; 26,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 27,52</t>
+          <t>13,88; 22,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 48,46</t>
+          <t>18,56; 32,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 26,88</t>
+          <t>13,79; 27,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 21,4</t>
+          <t>27,11; 49,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,32</t>
+          <t>10,73; 14,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,61; 31,16</t>
+          <t>3,02; 17,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,48</t>
+          <t>8,28; 14,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 13,63</t>
+          <t>20,28; 32,29</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>12,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 13,6</t>
+          <t>9,74; 13,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,05</t>
+          <t>7,51; 12,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 11,65</t>
+          <t>7,38; 12,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 13,81</t>
+          <t>9,42; 17,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 18,23</t>
+          <t>14,14; 19,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 34,74</t>
+          <t>4,32; 17,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 16,63</t>
+          <t>11,09; 17,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 19,59</t>
+          <t>22,59; 34,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,75</t>
+          <t>12,45; 15,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 24,24</t>
+          <t>5,99; 13,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 13,26</t>
+          <t>9,92; 14,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,05</t>
+          <t>16,81; 24,12</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,69%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>27,29%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,44%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20,97%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>20,18%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>20,17%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 12,17</t>
+          <t>6,88; 12,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,33</t>
+          <t>5,05; 12,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,29</t>
+          <t>4,97; 10,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,75</t>
+          <t>3,69; 14,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,57; 25,21</t>
+          <t>17,78; 23,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,48; 35,81</t>
+          <t>13,26; 28,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,05; 29,34</t>
+          <t>14,68; 24,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 24,0</t>
+          <t>19,83; 35,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,55</t>
+          <t>14,32; 19,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,98; 26,61</t>
+          <t>11,78; 21,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 22,43</t>
+          <t>10,7; 16,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,57; 18,5</t>
+          <t>15,18; 26,16</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 45,84</t>
+          <t>0,43; 4,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 28,55</t>
+          <t>2,04; 13,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,97</t>
+          <t>3,77; 34,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,24</t>
+          <t>7,46; 32,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,09; 39,01</t>
+          <t>19,52; 26,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 29,22</t>
+          <t>16,67; 23,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,07</t>
+          <t>6,77; 49,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,01</t>
+          <t>14,31; 29,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 33,29</t>
+          <t>14,41; 19,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,64; 25,72</t>
+          <t>13,47; 19,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 18,61</t>
+          <t>6,82; 33,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,76; 16,74</t>
+          <t>13,71; 26,08</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>12,92%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,44%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>23,73%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>17,6%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>16,15%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>11,18%</t>
-        </is>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,41</t>
+          <t>8,38; 10,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,08</t>
+          <t>5,46; 9,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 9,94</t>
+          <t>6,34; 8,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 9,85</t>
+          <t>11,13; 15,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,18</t>
+          <t>15,07; 17,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,56</t>
+          <t>11,48; 18,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,7</t>
+          <t>12,12; 15,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,14</t>
+          <t>21,44; 26,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 12,33</t>
+          <t>12,12; 13,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 20,27</t>
+          <t>9,85; 13,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 14,34</t>
+          <t>9,4; 11,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 13,38</t>
+          <t>17,17; 20,41</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos psicofármacos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11911</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35880</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14261</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20329</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11973</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28631</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27138</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37117</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23884</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64511</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41399</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9131; 15254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24910; 47761</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9565; 20199</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15534; 26602</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9491; 15236</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21551; 37746</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20014; 36832</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30450; 45835</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20100; 28451</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51563; 78689</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32558; 51665</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49109; 67820</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7283</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24530</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15873</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13189</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34375</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25429</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36059</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20472</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58905</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41302</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>55919</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5183; 10148</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16777; 35175</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10421; 22512</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14853; 26284</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10496; 16130</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26515; 43974</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19039; 34279</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28950; 43619</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16961; 24323</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47436; 72466</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>33534; 52386</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47729; 66000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17099</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27778</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11864</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17183</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11326</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24431</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17076</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21661</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28425</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52209</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28940</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38844</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13655; 21026</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6775; 63712</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7705; 18235</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11715; 25696</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8767; 13988</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18109; 32042</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11419; 22578</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15563; 28222</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24362; 32783</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17276; 98187</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21841; 37302</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31134; 49586</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19948</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>52962</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29298</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20999</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29056</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72959</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44485</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44733</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>49004</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>125921</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73782</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65733</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16560; 23754</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40276; 68406</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22752; 38344</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15375; 28937</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25054; 33838</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27501; 113080</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35027; 53703</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35892; 54699</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43248; 54787</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70246; 162074</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>61961; 89480</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54135; 77666</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7311</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17397</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11215</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27408</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94921</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29610</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25770</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>34720</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>112318</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40825</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29900</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5284; 9868</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10638; 26364</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7467; 16462</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1984; 7864</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23631; 31771</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56200; 118697</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22769; 38364</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18732; 33948</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30035; 40053</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>74757; 135618</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32659; 50915</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22488; 38749</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5681</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27124</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>96538</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13516</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27789</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>105884</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3853</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19198</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>196; 1965</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3407; 22666</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>353; 3243</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2727; 11824</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>23088; 31589</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>81697; 113043</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>829; 6061</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8919; 18336</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23572; 32279</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>88480; 125203</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1472; 7159</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13556; 25779</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>64218</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>167892</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83745</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>88183</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>120075</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>351856</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>146356</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>178857</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>184293</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>519748</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>230102</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>267040</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57230; 70913</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>113647; 200406</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>72259; 98444</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>75642; 103398</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112047; 129369</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>253295; 406503</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>130307; 164550</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>161146; 196546</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>172847; 194453</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>422375; 586078</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>208176; 253260</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>245742; 292153</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos</t>
+          <t>Consumo de medicamentos psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos psicofármacos</t>
+          <t>Consumo de medicamentos psicofármacos (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_PSI-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,46</t>
+          <t>5,85; 9,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,03</t>
+          <t>7,15; 13,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,96</t>
+          <t>7,51; 12,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,66</t>
+          <t>7,28; 11,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,63</t>
+          <t>7,11; 12,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 21,79</t>
+          <t>14,52; 21,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 9,85</t>
+          <t>7,07; 9,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,82</t>
+          <t>7,71; 11,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,32</t>
+          <t>11,94; 16,26</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,5</t>
+          <t>5,88; 11,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,86</t>
+          <t>5,15; 10,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 21,04</t>
+          <t>11,68; 20,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 14,78</t>
+          <t>9,5; 14,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,91</t>
+          <t>10,12; 16,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 25,92</t>
+          <t>17,63; 25,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,78</t>
+          <t>8,54; 12,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,41</t>
+          <t>7,89; 12,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 22,51</t>
+          <t>15,89; 22,55</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,83</t>
+          <t>8,02; 11,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 13,4</t>
+          <t>1,85; 13,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 26,72</t>
+          <t>11,95; 25,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 22,15</t>
+          <t>14,81; 23,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 32,84</t>
+          <t>18,44; 32,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 49,16</t>
+          <t>28,46; 50,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 14,44</t>
+          <t>10,66; 14,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 17,14</t>
+          <t>2,91; 17,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,28; 32,29</t>
+          <t>19,4; 31,54</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,97</t>
+          <t>10,3; 14,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 12,76</t>
+          <t>7,74; 12,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 17,74</t>
+          <t>9,46; 17,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 19,1</t>
+          <t>13,75; 18,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 17,77</t>
+          <t>4,38; 17,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 34,42</t>
+          <t>22,83; 35,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 15,78</t>
+          <t>12,64; 15,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 13,82</t>
+          <t>6,39; 13,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,12</t>
+          <t>16,84; 24,36</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,84</t>
+          <t>6,91; 12,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,51</t>
+          <t>5,37; 12,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 14,64</t>
+          <t>3,71; 14,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 23,9</t>
+          <t>17,87; 23,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 28,0</t>
+          <t>12,65; 28,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 35,95</t>
+          <t>20,3; 35,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,09</t>
+          <t>14,04; 18,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,37</t>
+          <t>12,15; 21,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 26,16</t>
+          <t>15,24; 27,06</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,34</t>
+          <t>0,55; 4,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,59</t>
+          <t>1,97; 14,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 32,35</t>
+          <t>7,69; 31,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,52; 26,71</t>
+          <t>17,34; 23,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,67; 23,07</t>
+          <t>16,49; 22,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,31; 29,43</t>
+          <t>14,52; 29,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,74</t>
+          <t>12,29; 16,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,06</t>
+          <t>13,83; 19,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 26,08</t>
+          <t>13,88; 26,55</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,38</t>
+          <t>8,11; 9,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,64</t>
+          <t>5,05; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,21</t>
+          <t>11,15; 14,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,07; 17,4</t>
+          <t>14,43; 16,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,42</t>
+          <t>10,85; 18,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,44; 26,15</t>
+          <t>21,43; 26,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,12; 13,63</t>
+          <t>11,66; 13,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 13,67</t>
+          <t>9,89; 13,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 20,41</t>
+          <t>16,94; 20,25</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11911</t>
+          <t>12550</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11973</t>
+          <t>15151</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23884</t>
+          <t>27701</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9131; 15254</t>
+          <t>9521; 15886</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24910; 47761</t>
+          <t>26201; 48603</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15534; 26602</t>
+          <t>15418; 26200</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9491; 15236</t>
+          <t>12275; 19087</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21551; 37746</t>
+          <t>21249; 37814</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30450; 45835</t>
+          <t>30544; 45247</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20100; 28451</t>
+          <t>23428; 32799</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>51563; 78689</t>
+          <t>51312; 79405</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49109; 67820</t>
+          <t>49644; 67573</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7283</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>14877</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20472</t>
+          <t>22231</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5183; 10148</t>
+          <t>5314; 9969</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16777; 35175</t>
+          <t>16676; 34725</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14853; 26284</t>
+          <t>14593; 25662</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10496; 16130</t>
+          <t>11651; 18121</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26515; 43974</t>
+          <t>26313; 43929</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28950; 43619</t>
+          <t>29666; 43530</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16961; 24323</t>
+          <t>18202; 26530</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47436; 72466</t>
+          <t>46090; 72919</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47729; 66000</t>
+          <t>46589; 66118</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17099</t>
+          <t>14961</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11326</t>
+          <t>11799</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28425</t>
+          <t>26760</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13655; 21026</t>
+          <t>12343; 18187</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6775; 63712</t>
+          <t>8805; 63753</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11715; 25696</t>
+          <t>11492; 24485</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8767; 13988</t>
+          <t>9126; 14599</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18109; 32042</t>
+          <t>17996; 31345</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15563; 28222</t>
+          <t>16336; 28806</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24362; 32783</t>
+          <t>22969; 31132</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17276; 98187</t>
+          <t>16690; 97503</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31134; 49586</t>
+          <t>29784; 48427</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19948</t>
+          <t>20929</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29056</t>
+          <t>28598</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49004</t>
+          <t>49527</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16560; 23754</t>
+          <t>17485; 24909</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40276; 68406</t>
+          <t>41505; 67071</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15375; 28937</t>
+          <t>15440; 28235</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25054; 33838</t>
+          <t>25056; 33197</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27501; 113080</t>
+          <t>27855; 113202</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35892; 54699</t>
+          <t>36281; 55695</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43248; 54787</t>
+          <t>44483; 55965</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>70246; 162074</t>
+          <t>74877; 163014</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>54135; 77666</t>
+          <t>54218; 78459</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7311</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27408</t>
+          <t>25894</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34720</t>
+          <t>32759</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5284; 9868</t>
+          <t>5144; 9233</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10638; 26364</t>
+          <t>11308; 26764</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1984; 7864</t>
+          <t>1993; 7633</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23631; 31771</t>
+          <t>22407; 29775</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56200; 118697</t>
+          <t>53616; 119050</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18732; 33948</t>
+          <t>19172; 33549</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30035; 40053</t>
+          <t>28059; 37099</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>74757; 135618</t>
+          <t>77094; 135612</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>22488; 38749</t>
+          <t>22581; 40096</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27124</t>
+          <t>24605</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27789</t>
+          <t>25620</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>196; 1965</t>
+          <t>307; 2681</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3407; 22666</t>
+          <t>3290; 23852</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2727; 11824</t>
+          <t>2811; 11465</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23088; 31589</t>
+          <t>21260; 28203</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>81697; 113043</t>
+          <t>80798; 111565</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8919; 18336</t>
+          <t>9050; 18294</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23572; 32279</t>
+          <t>21909; 29940</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88480; 125203</t>
+          <t>90854; 128278</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13556; 25779</t>
+          <t>13724; 26249</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>64218</t>
+          <t>63674</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>120075</t>
+          <t>120924</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>184293</t>
+          <t>184598</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>57230; 70913</t>
+          <t>57357; 70085</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>113647; 200406</t>
+          <t>105073; 200665</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>75642; 103398</t>
+          <t>75807; 101618</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>112047; 129369</t>
+          <t>112990; 130518</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>253295; 406503</t>
+          <t>239502; 403896</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>161146; 196546</t>
+          <t>161131; 198986</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>172847; 194453</t>
+          <t>173772; 195164</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>422375; 586078</t>
+          <t>424062; 592377</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>245742; 292153</t>
+          <t>242499; 289864</t>
         </is>
       </c>
     </row>
